--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda2.0_localhost_4.1.1.1\Veda\Veda_models\Demo_models\ETH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D750A-1022-4A78-AAF4-2E9A187C26DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13C394-3CBE-406A-9400-F1A290339164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -572,13 +572,41 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>Share-O</t>
+  </si>
+  <si>
+    <t>Share-I</t>
+  </si>
+  <si>
+    <r>
+      <t>~TFM_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPD</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -644,6 +672,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -3484,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3558,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B13:Q19"/>
+  <dimension ref="B13:Q33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3669,6 +3705,79 @@
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3682,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E58"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13C394-3CBE-406A-9400-F1A290339164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D8056-3432-4A8F-AB95-096F5256CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="152">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>milestoneyear</t>
-  </si>
-  <si>
-    <t>msy09/2052</t>
   </si>
   <si>
     <t>endyear</t>
@@ -600,6 +597,9 @@
       </rPr>
       <t>UPD</t>
     </r>
+  </si>
+  <si>
+    <t>msy09/2050</t>
   </si>
 </sst>
 </file>
@@ -3377,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D24"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3424,13 +3424,13 @@
         <v>93</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
@@ -3456,7 +3456,7 @@
         <v>94</v>
       </c>
       <c r="C18">
-        <v>2028</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -3464,7 +3464,7 @@
         <v>94</v>
       </c>
       <c r="C19">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>94</v>
       </c>
       <c r="C20">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="C21">
-        <v>2040</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3488,23 +3488,7 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -3596,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B13:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -3707,7 +3691,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -3738,10 +3722,10 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3752,10 +3736,10 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3766,10 +3750,10 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3791,7 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E58"/>
     </sheetView>
   </sheetViews>
@@ -3881,7 +3865,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
@@ -3896,7 +3880,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
@@ -3909,7 +3893,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
@@ -3921,7 +3905,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
@@ -3933,7 +3917,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="11" t="s">
@@ -3947,7 +3931,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="11" t="s">
@@ -3961,7 +3945,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="11" t="s">
@@ -3975,7 +3959,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="11" t="s">
@@ -3988,7 +3972,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="11" t="s">
@@ -4001,7 +3985,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="11" t="s">
@@ -4014,7 +3998,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21"/>
       <c r="D21" s="11" t="s">
@@ -4027,7 +4011,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="11" t="s">
@@ -4040,7 +4024,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="11" t="s">
@@ -4053,7 +4037,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="11" t="s">
@@ -4066,7 +4050,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25"/>
       <c r="D25" s="11" t="s">
@@ -4079,7 +4063,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="11" t="s">
@@ -4092,7 +4076,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="11" t="s">
@@ -4105,7 +4089,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="11" t="s">
@@ -4118,7 +4102,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="11" t="s">
@@ -4131,7 +4115,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="11" t="s">
@@ -4144,7 +4128,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="11" t="s">
@@ -4157,7 +4141,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="11" t="s">
@@ -4170,7 +4154,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="11" t="s">
@@ -4183,7 +4167,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="11" t="s">
@@ -4196,7 +4180,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="11" t="s">
@@ -4209,7 +4193,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="11" t="s">
@@ -4222,7 +4206,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>53</v>
@@ -4234,7 +4218,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
@@ -4246,7 +4230,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>53</v>
@@ -4258,7 +4242,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>53</v>
@@ -4270,7 +4254,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>53</v>
@@ -4282,7 +4266,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>53</v>
@@ -4294,7 +4278,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>53</v>
@@ -4306,7 +4290,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>53</v>
@@ -4318,7 +4302,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>53</v>
@@ -4330,7 +4314,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>53</v>
@@ -4342,7 +4326,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>53</v>
@@ -4354,7 +4338,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>53</v>
@@ -4366,7 +4350,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>53</v>
@@ -4378,7 +4362,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>53</v>
@@ -4390,7 +4374,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>53</v>
@@ -4402,7 +4386,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
@@ -4414,7 +4398,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>53</v>
@@ -4426,7 +4410,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>53</v>
@@ -4438,7 +4422,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>53</v>
@@ -4450,7 +4434,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>53</v>
@@ -4462,7 +4446,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>53</v>
@@ -4474,7 +4458,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>53</v>
@@ -4537,7 +4521,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -4545,7 +4529,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -4553,7 +4537,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D8056-3432-4A8F-AB95-096F5256CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961E1A6-A5E8-467D-985D-26AE02864336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -3184,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3580,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B13:Q33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -3775,7 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E58"/>
     </sheetView>
   </sheetViews>
@@ -4551,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961E1A6-A5E8-467D-985D-26AE02864336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47364627-3FCC-4DCC-8EBA-98853E9CA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -3184,19 +3184,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>62</v>
       </c>
@@ -3245,122 +3245,122 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
         <v>91</v>
       </c>
@@ -3383,43 +3383,43 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>93</v>
       </c>
@@ -3428,14 +3428,14 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -3508,18 +3508,18 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3580,38 +3580,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B13:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3661,12 +3661,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="G18">
-        <v>2222</v>
+        <v>8888</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -3675,12 +3675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>8888</v>
+        <v>9999</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -3689,12 +3689,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C31" s="16" t="s">
         <v>146</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C32" s="16" t="s">
         <v>146</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3779,29 +3779,29 @@
       <selection activeCell="E9" sqref="E9:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="11"/>
-    <col min="2" max="2" width="12.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="11"/>
+    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
         <v>44</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>97</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>103</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>105</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>109</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>110</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>111</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>112</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>113</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>114</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>115</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>116</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>117</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>118</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>119</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>120</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>121</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>122</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>123</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>124</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>125</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>126</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>127</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>128</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>130</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>131</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>132</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>133</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>134</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>135</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>136</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>137</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>138</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>140</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>142</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>143</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E59" s="17"/>
     </row>
   </sheetData>
@@ -4488,13 +4488,13 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>64</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>50</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>51</v>
       </c>
@@ -4555,18 +4555,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4586,12 +4586,12 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47364627-3FCC-4DCC-8EBA-98853E9CA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B16F7BE-4222-4771-9DD0-94C538A44B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
     <sheet name="TimePeriods" sheetId="18" r:id="rId2"/>
     <sheet name="Import Settings" sheetId="17" r:id="rId3"/>
-    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId4"/>
+    <sheet name="Interpol_Extrapol_Defaults" sheetId="22" r:id="rId4"/>
     <sheet name="Constants" sheetId="20" r:id="rId5"/>
     <sheet name="Defaults" sheetId="21" r:id="rId6"/>
     <sheet name="Commodity Group" sheetId="15" r:id="rId7"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="153">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -583,30 +583,20 @@
     <t>Share-I</t>
   </si>
   <si>
-    <r>
-      <t>~TFM_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UPD</t>
-    </r>
-  </si>
-  <si>
     <t>msy09/2050</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -672,14 +662,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -1810,23 +1792,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE286A2-3C4F-479A-A1D5-64E2545CCE5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0250CDD2-5FEF-4FCD-A826-306889E4ED0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,8 +1816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5610225" y="190500"/>
-          <a:ext cx="5962650" cy="2000250"/>
+          <a:off x="6715125" y="171450"/>
+          <a:ext cx="5953125" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,8 +1964,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> block deals with setting the default interpolation rules (indicated by the 0 in the Yr column) for various parameters.</a:t>
-          </a:r>
+            <a:t> block deals with setting the default interpolation rules (indicated by the 0 in the Yr column) for  the parameter defined in the column attribute </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and all the processes  defined in the model.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
@@ -2088,6 +2091,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6134100" cy="2943225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEB2A17-C0E1-4917-8185-BA41450B4A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="1428750"/>
+          <a:ext cx="6134100" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3424,7 +3496,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="24"/>
     </row>
@@ -3577,11 +3649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B13:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
+  <dimension ref="B3:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3589,181 +3661,177 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q34" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="G35">
+        <v>2222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
         <v>8888</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>9999</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="K36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B16F7BE-4222-4771-9DD0-94C538A44B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C659F65-7D98-4D32-AB0D-EBBA62B38601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3653,7 +3653,7 @@
   <dimension ref="B3:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C659F65-7D98-4D32-AB0D-EBBA62B38601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAC6741-FB85-44BF-B0C5-7C187E234EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3653,7 +3653,7 @@
   <dimension ref="B3:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3700,10 +3700,10 @@
         <v>147</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAC6741-FB85-44BF-B0C5-7C187E234EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2361A4-B2BC-4071-AFDE-A643070A370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>NCAP_BND</t>
+  </si>
+  <si>
+    <t>UP,LO</t>
   </si>
 </sst>
 </file>
@@ -3653,7 +3659,7 @@
   <dimension ref="B3:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
         <v>147</v>
@@ -3732,6 +3738,20 @@
       </c>
       <c r="F7">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2361A4-B2BC-4071-AFDE-A643070A370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>UP,LO</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1809,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2101,7 +2104,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="2943225"/>
@@ -3656,16 +3659,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
-  <dimension ref="B3:Q36"/>
+  <dimension ref="B3:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3699,9 +3702,6 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
       <c r="D5" t="s">
         <v>147</v>
       </c>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>149</v>
@@ -3754,100 +3754,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="34" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+    <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q36" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>2222</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>8888</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J38" t="s">
         <v>16</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K38" t="s">
         <v>4</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19094B2A-F62B-4AA3-8A15-ECD730CD2F46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>ELCGRID</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +810,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -833,6 +842,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,7 +1821,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2104,7 +2116,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="2943225"/>
@@ -3269,15 +3281,15 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3299,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>62</v>
       </c>
@@ -3326,122 +3338,122 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>91</v>
       </c>
@@ -3464,43 +3476,43 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>93</v>
       </c>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -3548,7 +3560,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -3564,7 +3576,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -3589,18 +3601,18 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3659,29 +3671,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
-  <dimension ref="B3:Q38"/>
+  <dimension ref="B3:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3700,8 +3712,11 @@
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>147</v>
       </c>
@@ -3712,170 +3727,276 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="6" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="27">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="26">
+        <v>15</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2030</v>
+      </c>
+      <c r="F7" s="26">
+        <v>15</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2035</v>
+      </c>
+      <c r="F8" s="26">
+        <v>15</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2040</v>
+      </c>
+      <c r="F9" s="26">
+        <v>15</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2045</v>
+      </c>
+      <c r="F10" s="26">
+        <v>15</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2050</v>
+      </c>
+      <c r="F11" s="26">
+        <v>15</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F12">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="16">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="16">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="H41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2222</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>2222</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="G43">
+        <v>8888</v>
+      </c>
+      <c r="J43" t="s">
         <v>16</v>
       </c>
-      <c r="K37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>8888</v>
-      </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="K43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3895,29 +4016,29 @@
       <selection activeCell="E9" sqref="E9:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="11"/>
+    <col min="2" max="2" width="12.1796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -3937,7 +4058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>62</v>
       </c>
@@ -3948,7 +4069,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>44</v>
       </c>
@@ -3956,7 +4077,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
@@ -3967,7 +4088,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -3979,7 +4100,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
@@ -3994,7 +4115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>97</v>
       </c>
@@ -4007,7 +4128,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
@@ -4019,7 +4140,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
@@ -4031,7 +4152,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
@@ -4045,7 +4166,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
@@ -4059,7 +4180,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
@@ -4073,7 +4194,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>103</v>
       </c>
@@ -4086,7 +4207,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
@@ -4099,7 +4220,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>105</v>
       </c>
@@ -4112,7 +4233,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
@@ -4125,7 +4246,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
@@ -4138,7 +4259,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
@@ -4151,7 +4272,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>109</v>
       </c>
@@ -4164,7 +4285,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>110</v>
       </c>
@@ -4177,7 +4298,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>111</v>
       </c>
@@ -4190,7 +4311,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>112</v>
       </c>
@@ -4203,7 +4324,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>113</v>
       </c>
@@ -4216,7 +4337,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>114</v>
       </c>
@@ -4229,7 +4350,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>115</v>
       </c>
@@ -4242,7 +4363,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>116</v>
       </c>
@@ -4255,7 +4376,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>117</v>
       </c>
@@ -4268,7 +4389,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>118</v>
       </c>
@@ -4281,7 +4402,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>119</v>
       </c>
@@ -4294,7 +4415,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>120</v>
       </c>
@@ -4307,7 +4428,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>121</v>
       </c>
@@ -4320,7 +4441,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>122</v>
       </c>
@@ -4332,7 +4453,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>123</v>
       </c>
@@ -4344,7 +4465,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>124</v>
       </c>
@@ -4356,7 +4477,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>125</v>
       </c>
@@ -4368,7 +4489,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>126</v>
       </c>
@@ -4380,7 +4501,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>127</v>
       </c>
@@ -4392,7 +4513,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>128</v>
       </c>
@@ -4404,7 +4525,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
@@ -4416,7 +4537,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>130</v>
       </c>
@@ -4428,7 +4549,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>131</v>
       </c>
@@ -4440,7 +4561,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>132</v>
       </c>
@@ -4452,7 +4573,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>133</v>
       </c>
@@ -4464,7 +4585,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>134</v>
       </c>
@@ -4476,7 +4597,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>135</v>
       </c>
@@ -4488,7 +4609,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>136</v>
       </c>
@@ -4500,7 +4621,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>137</v>
       </c>
@@ -4512,7 +4633,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>138</v>
       </c>
@@ -4524,7 +4645,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4536,7 +4657,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>140</v>
       </c>
@@ -4548,7 +4669,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
@@ -4560,7 +4681,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>142</v>
       </c>
@@ -4572,7 +4693,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>143</v>
       </c>
@@ -4584,7 +4705,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E59" s="17"/>
     </row>
   </sheetData>
@@ -4604,13 +4725,13 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4618,7 +4739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
@@ -4629,7 +4750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>64</v>
       </c>
@@ -4640,7 +4761,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>50</v>
       </c>
@@ -4648,7 +4769,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>51</v>
       </c>
@@ -4671,18 +4792,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="10" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
@@ -4693,7 +4814,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4702,12 +4823,12 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4730,7 +4851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19094B2A-F62B-4AA3-8A15-ECD730CD2F46}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0F61CA-3C37-4988-AA49-BC22A7CAF1CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>FX</t>
-  </si>
-  <si>
-    <t>ELCGRID</t>
   </si>
 </sst>
 </file>
@@ -842,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1821,7 +1818,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2116,7 +2113,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="2943225"/>
@@ -2986,6 +2983,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3671,10 +3672,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
-  <dimension ref="B3:Q43"/>
+  <dimension ref="B3:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3735,268 +3736,163 @@
         <v>148</v>
       </c>
       <c r="E6" s="27">
-        <v>2025</v>
+        <v>0</v>
       </c>
       <c r="F6" s="26">
         <v>15</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="27" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="27">
-        <v>2030</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="D9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="26">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="27">
-        <v>2035</v>
-      </c>
-      <c r="F8" s="26">
-        <v>15</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="27">
-        <v>2040</v>
-      </c>
-      <c r="F9" s="26">
-        <v>15</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="27">
-        <v>2045</v>
-      </c>
-      <c r="F10" s="26">
-        <v>15</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="27">
-        <v>2050</v>
-      </c>
-      <c r="F11" s="26">
-        <v>15</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="H36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2222</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:17" ht="13" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="G42">
-        <v>2222</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G38">
+        <v>8888</v>
+      </c>
+      <c r="J38" t="s">
         <v>16</v>
       </c>
-      <c r="K42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>8888</v>
-      </c>
-      <c r="J43" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="K38" t="s">
         <v>4</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0F61CA-3C37-4988-AA49-BC22A7CAF1CA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2A4A72-3A94-4236-9902-25223F0929F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -677,7 +677,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +735,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,9 +845,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3674,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
   <dimension ref="B3:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3713,9 +3719,7 @@
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>31</v>
-      </c>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -3728,20 +3732,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B7274479-AF5D-4CA5-BA99-CD0487ADDBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2A4A72-3A94-4236-9902-25223F0929F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E5B49-F0D1-4F0A-A5C2-31378DFDB498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -813,7 +813,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -848,6 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,7 +1825,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2119,7 +2120,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="2943225"/>
@@ -2989,10 +2990,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3288,15 +3285,15 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3303,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
@@ -3337,7 +3334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>62</v>
       </c>
@@ -3345,122 +3342,122 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
         <v>91</v>
       </c>
@@ -3483,43 +3480,43 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>93</v>
       </c>
@@ -3528,14 +3525,14 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -3608,18 +3605,18 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3678,29 +3675,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
-  <dimension ref="B3:Q38"/>
+  <dimension ref="B3:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3721,77 +3718,72 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>147</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+    <row r="7" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F7" s="25">
         <v>15</v>
       </c>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>147</v>
@@ -3803,100 +3795,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:17" ht="13" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q37" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>2222</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="G38">
-        <v>8888</v>
+        <v>2222</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
       </c>
       <c r="K38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>8888</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3912,33 +3918,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="11"/>
-    <col min="2" max="2" width="12.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="11"/>
+    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -3958,10 +3964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
         <v>44</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>97</v>
       </c>
@@ -4028,7 +4031,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
@@ -4066,7 +4069,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
@@ -4080,7 +4083,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
@@ -4094,7 +4097,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>103</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>105</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>109</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>110</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>111</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>112</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>113</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>114</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>115</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>116</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>117</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>118</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>119</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>120</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>121</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>122</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>123</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>124</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>125</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>126</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>127</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>128</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>130</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>131</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>132</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>133</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>134</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>135</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>136</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>137</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>138</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>140</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>142</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>143</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E59" s="17"/>
     </row>
   </sheetData>
@@ -4625,13 +4628,13 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>64</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>50</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>51</v>
       </c>
@@ -4688,22 +4691,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="10" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
@@ -4714,7 +4717,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4723,12 +4726,12 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4751,7 +4754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E5B49-F0D1-4F0A-A5C2-31378DFDB498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5907625B-B0F5-412B-9FB2-727255F89F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -3677,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
   <dimension ref="B3:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4691,7 +4691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
